--- a/public/RELACION_DE_COMPROMISOS_20210131.xlsx
+++ b/public/RELACION_DE_COMPROMISOS_20210131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABIOROJAS\Downloads\yopal-testing\examples-dicc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.rojas\code\produccion\csv-analyzer\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08EA2EEF-8771-49E5-9766-03541DC6D031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF01A69-78B7-4AF4-90A6-385CB239EBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63CB7599-CFC5-43C9-A6CA-7FD67EFB6136}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15912" windowHeight="8172" xr2:uid="{63CB7599-CFC5-43C9-A6CA-7FD67EFB6136}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -72,9 +63,6 @@
     <t>Valor_Compromiso</t>
   </si>
   <si>
-    <t>NIT_Beneficiario</t>
-  </si>
-  <si>
     <t>Nombre_Beneficiario</t>
   </si>
   <si>
@@ -127,6 +115,9 @@
   </si>
   <si>
     <t>Servicio a la deuda publica</t>
+  </si>
+  <si>
+    <t>identificacion_Beneficiario</t>
   </si>
 </sst>
 </file>
@@ -523,31 +514,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC64BD4E-3944-4FFE-A63F-FFB4112CBBF1}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="46.5703125" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" customWidth="1"/>
-    <col min="20" max="20" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="46.5546875" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.88671875" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" customWidth="1"/>
+    <col min="20" max="20" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -585,63 +578,63 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>900900081</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H2" s="1">
         <v>2018000247</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1">
         <v>201800513</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1">
         <v>1000000.35</v>
@@ -650,16 +643,16 @@
         <v>900900015</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="R2" s="1">
         <v>1000000.35</v>
@@ -668,7 +661,7 @@
         <v>1000000.35</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
